--- a/public/poll_sample.xlsx
+++ b/public/poll_sample.xlsx
@@ -5,89 +5,104 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option2*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deactivate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Option Type*</t>
+  </si>
+  <si>
+    <t>Option1*</t>
+  </si>
+  <si>
+    <t>Option2*</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Question</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>activate</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Test Question 2</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>deactivate</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,12 +147,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,61 +177,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/poll_sample.xlsx
+++ b/public/poll_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Test Question 3</t>
+  </si>
+  <si>
+    <t>Textbox</t>
   </si>
 </sst>
 </file>
@@ -152,11 +158,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,104 +183,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/poll_sample.xlsx
+++ b/public/poll_sample.xlsx
@@ -59,7 +59,7 @@
     <t>activate</t>
   </si>
   <si>
-    <t>true</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Test Question 2</t>
@@ -71,7 +71,7 @@
     <t>deactivate</t>
   </si>
   <si>
-    <t>false</t>
+    <t>No</t>
   </si>
   <si>
     <t>Test Question 3</t>
@@ -186,7 +186,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -292,7 +292,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
